--- a/leetcodeQuesList.xlsx
+++ b/leetcodeQuesList.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshit Yadav\Desktop\CodingPractice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB5AF76-2565-47EA-B9E6-9B8B9BB79A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Stacks" sheetId="2" r:id="rId2"/>
+    <sheet name="Queues" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Sno.</t>
   </si>
@@ -62,14 +70,42 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Create stack using arrays.</t>
+  </si>
+  <si>
+    <t>Create a class with a dynamic array, and push pop and  top functions.</t>
+  </si>
+  <si>
+    <t>Next Smaller element/ Prev Smaller element</t>
+  </si>
+  <si>
+    <t>Max area in a histogram</t>
+  </si>
+  <si>
+    <t>1. Brute force: Run a loop for every element in the array find if the area can be expanded in left and right, area can be expaned if on the left and right if the height of the index is greater than or equal to the height of current element. 
+2. Efficient algo using stacks: Create a next and prev smallest element array, and then</t>
+  </si>
+  <si>
+    <t>1. Brute force: Run 2 loops, inner loop will compare all the next element and add to ans array if a smaller num is found otherwise push -1. 
+2. Efficient solution using stacks: create a stack and push -1, now for next smaller element start from the right, as we know that the rightmost will always have a value of -1 as there is no value smalled on the right, now iterate array from right and compare element with st.top(), and if(st.top()&gt;arr[i]) keep poping elements from stack, it just means that there are still elements we need to find which might be smaller than current element, if there is no smaller element all elements will be popped and -1 will be added to ans array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max rectangle in a 2D </t>
+  </si>
+  <si>
+    <t>Car Fleet</t>
+  </si>
+  <si>
+    <t>1. We will iterate every row, and for every row we will make a histogram of upto ith row, now if in a row j&gt;i if any cell has a value of 0 the value for that histogram bar will be 0, now we calculate max area of all these histograms from 0th to mth rows and then find the maximum out of all the histograms.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +119,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,55 +156,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E200" displayName="Table2" name="Table2" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:E200"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:E200" totalsRowShown="0">
+  <autoFilter ref="A1:E200" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn name="Sno." id="1"/>
-    <tableColumn name="Question" id="2"/>
-    <tableColumn name="Solution Approaches" id="3"/>
-    <tableColumn name="Time Complexity" id="4"/>
-    <tableColumn name="Space Complexity" id="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sno."/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Question"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Solution Approaches"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Time Complexity"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Space Complexity"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBFA3611-CD92-44B6-984E-88E08CCCC616}" name="Table3" displayName="Table3" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <autoFilter ref="A1:E1048576" xr:uid="{CBFA3611-CD92-44B6-984E-88E08CCCC616}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C6B98A65-F7B7-4AC1-A431-B80E5169C2FD}" name="Sno." dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{50646BB8-A85C-4BAD-A923-1A0A26519931}" name="Question" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{74B2AD81-7057-4C09-8FC3-F8EB348AA1D3}" name="Solution Approaches" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{62B6B11B-0E71-499F-AC97-7BEF5DB189FB}" name="Time Complexity" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{32EC2DB8-EE59-42AD-B4A2-2656E52B7DD0}" name="Space Complexity" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -164,10 +315,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -205,71 +356,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -297,7 +448,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -320,11 +471,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -333,13 +484,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -349,7 +500,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -358,7 +509,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -367,7 +518,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -375,10 +526,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -443,24 +594,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="101.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="61.5" customFormat="1" s="1">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -494,7 +647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33.75" customFormat="1" s="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -511,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -522,7 +675,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
@@ -531,1365 +684,1365 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="64" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="65" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="68" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="71" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="72" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="73" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="79" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="81" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="82" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="83" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="84" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="85" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="86" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="87" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="88" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="89" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="90" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="91" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="92" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="93" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="94" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="95" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="96" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="97" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="98" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="99" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="100" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="101" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="102" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="103" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="104" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="105" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="106" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="107" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="108" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="109" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="110" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="111" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="112" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="113" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="114" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="115" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="116" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="117" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="118" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="119" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="120" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="121" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="122" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="123" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="124" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="125" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="126" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="127" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="128" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="129" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="130" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="131" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="132" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="133" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="134" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="135" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="136" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="137" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="138" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="139" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="140" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="141" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="142" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="143" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="144" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="145" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="146" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="147" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="148" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="149" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="150" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="151" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="152" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="153" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="154" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="155" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="156" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="157" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="158" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="159" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="160" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="161" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="162" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="163" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="164" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="165" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="166" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="167" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="168" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="169" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="170" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="171" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="172" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="173" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="174" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="175" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="176" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="177" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="178" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="179" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="180" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="181" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="182" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="183" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="184" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="185" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="186" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="187" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="188" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="189" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="190" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="191" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="192" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="193" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="194" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="195" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="196" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="197" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="198" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="199" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="200" spans="1:5" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -1902,4 +2055,122 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBB2373-0B94-4CFE-8305-6DD451EDF59D}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="134" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B5423A-F960-453A-92B5-FB7D9C02D474}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>